--- a/resources/excel/25072024-Epcot.xlsx
+++ b/resources/excel/25072024-Epcot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4451,10 +4451,8 @@
           <t>Frozen Ever After</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F134" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="135">
@@ -4483,10 +4481,8 @@
           <t>Gran Fiesta Tour</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F135" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="136">
@@ -4515,10 +4511,8 @@
           <t>Guardians of the Galaxy: Cosmic Rewind</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F136" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -4547,10 +4541,8 @@
           <t>Journey Into Imagination With Figment</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F137" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -4579,10 +4571,8 @@
           <t>Living with the Land</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F138" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -4611,10 +4601,8 @@
           <t>Meet Anna and Elsa at Royal Sommerhus</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F139" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="140">
@@ -4643,10 +4631,8 @@
           <t>Meet Beloved Disney Pals at Mickey &amp; Friends</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="F140" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="141">
@@ -4675,10 +4661,8 @@
           <t>Mission: SPACE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F141" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -4707,10 +4691,8 @@
           <t>Remy's Ratatouille Adventure</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="F142" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="143">
@@ -4739,10 +4721,8 @@
           <t>The Seas with Nemo &amp; Friends</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F143" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="144">
@@ -4771,10 +4751,8 @@
           <t>Soarin'</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F144" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="145">
@@ -4803,7 +4781,749 @@
           <t>Spaceship Earth</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Frozen Ever After</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Gran Fiesta Tour</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Guardians of the Galaxy: Cosmic Rewind</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Journey Into Imagination With Figment</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Living with the Land</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Meet Anna and Elsa at Royal Sommerhus</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Meet Beloved Disney Pals at Mickey &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Mission: SPACE</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Remy's Ratatouille Adventure</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>The Seas with Nemo &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Soarin'</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>13:15:05</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Spaceship Earth</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Frozen Ever After</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Gran Fiesta Tour</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Guardians of the Galaxy: Cosmic Rewind</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Journey Into Imagination With Figment</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Living with the Land</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Meet Anna and Elsa at Royal Sommerhus</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Meet Beloved Disney Pals at Mickey &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Mission: SPACE</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Remy's Ratatouille Adventure</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>The Seas with Nemo &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Soarin'</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13:20:19</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Spaceship Earth</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>30</t>
         </is>

--- a/resources/excel/25072024-Epcot.xlsx
+++ b/resources/excel/25072024-Epcot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,10 +5171,8 @@
           <t>Frozen Ever After</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F158" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="159">
@@ -5203,10 +5201,8 @@
           <t>Gran Fiesta Tour</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F159" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -5235,10 +5231,8 @@
           <t>Guardians of the Galaxy: Cosmic Rewind</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F160" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -5267,10 +5261,8 @@
           <t>Journey Into Imagination With Figment</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F161" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="162">
@@ -5299,10 +5291,8 @@
           <t>Living with the Land</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F162" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -5331,10 +5321,8 @@
           <t>Meet Anna and Elsa at Royal Sommerhus</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F163" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -5363,10 +5351,8 @@
           <t>Meet Beloved Disney Pals at Mickey &amp; Friends</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="F164" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="165">
@@ -5395,10 +5381,8 @@
           <t>Mission: SPACE</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F165" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="166">
@@ -5427,10 +5411,8 @@
           <t>Remy's Ratatouille Adventure</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F166" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="167">
@@ -5459,10 +5441,8 @@
           <t>The Seas with Nemo &amp; Friends</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F167" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="168">
@@ -5491,10 +5471,8 @@
           <t>Soarin'</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="F168" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="169">
@@ -5523,9 +5501,391 @@
           <t>Spaceship Earth</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Frozen Ever After</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Gran Fiesta Tour</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Guardians of the Galaxy: Cosmic Rewind</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Journey Into Imagination With Figment</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Living with the Land</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Meet Anna and Elsa at Royal Sommerhus</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Meet Beloved Disney Pals at Mickey &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>World Discovery</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Mission: SPACE</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>World Showcase</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Remy's Ratatouille Adventure</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>The Seas with Nemo &amp; Friends</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>World Nature</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Soarin'</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>15:16:17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Epcot</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>World Celebration</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Spaceship Earth</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
